--- a/ExpDataAnalyze/output/processed_data/personality_similarity_label.xlsx
+++ b/ExpDataAnalyze/output/processed_data/personality_similarity_label.xlsx
@@ -591,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6670497965475185</v>
+        <v>0.6670497965475184</v>
       </c>
       <c r="J2" t="n">
         <v>12</v>
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5320615941661008</v>
+        <v>0.5320615941661007</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6670497965475185</v>
+        <v>0.6670497965475184</v>
       </c>
       <c r="J3" t="n">
         <v>12</v>
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6670497965475185</v>
+        <v>0.6670497965475184</v>
       </c>
       <c r="J4" t="n">
         <v>12</v>
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6625391828105724</v>
+        <v>0.6625391828105723</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6625391828105724</v>
+        <v>0.6625391828105723</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8699867495668239</v>
+        <v>0.8699867495668238</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8699867495668239</v>
+        <v>0.8699867495668238</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4057396467615639</v>
+        <v>-0.405739646761564</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9227745748048857</v>
+        <v>0.9227745748048859</v>
       </c>
       <c r="J11" t="n">
         <v>12</v>
@@ -1415,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4057396467615639</v>
+        <v>-0.405739646761564</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5225608229499514</v>
+        <v>0.5225608229499515</v>
       </c>
       <c r="J12" t="n">
         <v>12</v>
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.461738334493584</v>
+        <v>0.4617383344935841</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9227745748048857</v>
+        <v>0.9227745748048859</v>
       </c>
       <c r="J13" t="n">
         <v>12</v>
@@ -1583,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.461738334493584</v>
+        <v>0.4617383344935841</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5225608229499514</v>
+        <v>0.5225608229499515</v>
       </c>
       <c r="J14" t="n">
         <v>12</v>
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7410234239088985</v>
+        <v>0.7410234239088987</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9227745748048857</v>
+        <v>0.9227745748048859</v>
       </c>
       <c r="J15" t="n">
         <v>12</v>
@@ -1751,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7410234239088985</v>
+        <v>0.7410234239088987</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5225608229499514</v>
+        <v>0.5225608229499515</v>
       </c>
       <c r="J16" t="n">
         <v>12</v>
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9227745748048857</v>
+        <v>0.9227745748048859</v>
       </c>
       <c r="J17" t="n">
         <v>12</v>
@@ -1935,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5225608229499514</v>
+        <v>0.5225608229499515</v>
       </c>
       <c r="J18" t="n">
         <v>12</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2110506448849854</v>
+        <v>0.2110506448849855</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07035666944442925</v>
+        <v>0.07035666944442927</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.1141196379842992</v>
+        <v>-0.1141196379842991</v>
       </c>
       <c r="J24" t="n">
         <v>11</v>
@@ -2523,7 +2523,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.1141196379842992</v>
+        <v>-0.1141196379842991</v>
       </c>
       <c r="J25" t="n">
         <v>11</v>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.6497958936910607</v>
+        <v>0.6497958936910606</v>
       </c>
       <c r="J27" t="n">
         <v>13</v>
@@ -2775,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6497958936910607</v>
+        <v>0.6497958936910606</v>
       </c>
       <c r="J28" t="n">
         <v>13</v>
@@ -2843,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>0.646527024242982</v>
+        <v>0.6465270242429819</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3851496747417966</v>
+        <v>0.3851496747417967</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9749674164835254</v>
+        <v>0.9749674164835253</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6959023741151046</v>
+        <v>0.6959023741151045</v>
       </c>
       <c r="J32" t="n">
         <v>8</v>
@@ -3179,7 +3179,7 @@
         <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9749674164835254</v>
+        <v>0.9749674164835253</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6522696258020876</v>
+        <v>0.6522696258020875</v>
       </c>
       <c r="J33" t="n">
         <v>8</v>
@@ -3263,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9324633945929676</v>
+        <v>0.9324633945929675</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6959023741151046</v>
+        <v>0.6959023741151045</v>
       </c>
       <c r="J34" t="n">
         <v>8</v>
@@ -3347,7 +3347,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9324633945929676</v>
+        <v>0.9324633945929675</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6522696258020876</v>
+        <v>0.6522696258020875</v>
       </c>
       <c r="J35" t="n">
         <v>8</v>
@@ -3431,7 +3431,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9079139422408087</v>
+        <v>0.9079139422408085</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6959023741151046</v>
+        <v>0.6959023741151045</v>
       </c>
       <c r="J36" t="n">
         <v>8</v>
@@ -3515,7 +3515,7 @@
         <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9079139422408087</v>
+        <v>0.9079139422408085</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6522696258020876</v>
+        <v>0.6522696258020875</v>
       </c>
       <c r="J37" t="n">
         <v>8</v>
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07330420739280843</v>
+        <v>0.07330420739280841</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6959023741151046</v>
+        <v>0.6959023741151045</v>
       </c>
       <c r="J38" t="n">
         <v>8</v>
@@ -3683,7 +3683,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>0.07330420739280843</v>
+        <v>0.07330420739280841</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6522696258020876</v>
+        <v>0.6522696258020875</v>
       </c>
       <c r="J39" t="n">
         <v>8</v>
@@ -3783,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.06198851565014048</v>
+        <v>-0.06198851565014041</v>
       </c>
       <c r="J40" t="n">
         <v>8</v>
@@ -3867,7 +3867,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2240314061317599</v>
+        <v>0.2240314061317598</v>
       </c>
       <c r="J41" t="n">
         <v>8</v>
@@ -3951,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.06198851565014048</v>
+        <v>-0.06198851565014041</v>
       </c>
       <c r="J42" t="n">
         <v>8</v>
@@ -4035,7 +4035,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2240314061317599</v>
+        <v>0.2240314061317598</v>
       </c>
       <c r="J43" t="n">
         <v>8</v>
@@ -4119,7 +4119,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.06198851565014048</v>
+        <v>-0.06198851565014041</v>
       </c>
       <c r="J44" t="n">
         <v>8</v>
@@ -4203,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2240314061317599</v>
+        <v>0.2240314061317598</v>
       </c>
       <c r="J45" t="n">
         <v>8</v>
@@ -4287,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8762161951895137</v>
+        <v>0.8762161951895139</v>
       </c>
       <c r="J46" t="n">
         <v>12</v>
